--- a/레벨.xlsx
+++ b/레벨.xlsx
@@ -356,10 +356,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -371,10 +371,10 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>99</v>
+        <v>2888</v>
       </c>
       <c r="C1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -397,10 +397,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>1595</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -410,10 +410,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>7846</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -423,10 +423,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4679</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -436,9 +436,1829 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>735466302680072212</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>444</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>674877162557407242</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1266</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>692294930416140308</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>922</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>728949358875377695</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>202</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>562409981488660491</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1429</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>721730499277488250</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>695899835953578025</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>58</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>686105803668586575</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>688672545184022579</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>70</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>726350177601978438</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>680297851410186252</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>56</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>707156018261524510</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>487807983745761280</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>92</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>430352599535976458</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>62</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>634033788938223617</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>415401437246521344</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310247242546151434</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>570</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>739707482783481947</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>660131925801041950</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>70</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>473416606681399296</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>734983344743252070</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>629560211786432542</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>700561761690189875</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>120</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>673123907762389052</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>495574108046753814</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>156</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>702661901921943662</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>639029334379855872</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>244</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>633200975569747968</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>218010938807287808</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>698381111599824937</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>546287248727998464</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>667103389347217439</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>701966787352199180</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>54</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>687886541619462293</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>671993218438791169</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>24</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>520830713696878592</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>266</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>556664157240295425</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>152</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>664694864692248587</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>168</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>495209098929766400</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>156</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>659037810992480259</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>164</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>736059693775978586</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>28</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>680694763036737536</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>563937189713543169</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>134</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>734404488068202558</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>616570697875193866</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>540</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>419476138331602946</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>351733476141170688</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>728070046529749043</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>90</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>728841953306738729</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>200</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>505818451114459136</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>621013224610988042</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>696529199481225266</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>479108435984515072</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>70</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>236696896658341888</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>712157945223184484</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>54</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>679600384422969367</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>426722888293548032</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>26</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>297557056209289217</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>100</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>653534001742741552</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>713188805716213771</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>703805548365086720</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>44</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>715171908584210472</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>14</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>709302768279486545</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>530171799980212244</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>36</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>685715386745880581</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>622710354836717580</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>58</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>689419260866330645</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>647630912795836437</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>681219993911951360</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>18</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>720724942873821316</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>728468846868037763</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>86</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>625351636684111907</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>686460052982464522</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>682046538218078270</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>14</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>285185716240252929</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>574074150327418893</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>42</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>689723237403197511</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>421269360947101696</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>617164616916664451</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>409679882327687168</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>24</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>681403207620100135</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>734</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>288302173912170497</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>28</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>351613953769603073</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>709041462762799107</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>339997635677257740</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>669029984672677898</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>557628352828014614</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>302050872383242240</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>722196398635745312</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>628595345798201355</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>144</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>582913566580015104</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>38</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>552103947662524416</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>32</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>703956235900420226</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>371938007600726026</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>84</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>619486806198583296</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>22</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>488670402118156298</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>60</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>637209125352374284</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>60</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>387548561816027138</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>729887791344779304</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>706687308895617054</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>98</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>705978665384542208</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>345265069132742657</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>651800807183876112</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>686309666690826265</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>669442743486906379</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>524515155254444032</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>48</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>485801939431456799</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>606533793314111645</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>717044065635532810</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>731513302554771516</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>58</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>739315128599576606</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>704911148310593606</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>604617640891121664</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>12</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>534214957110394881</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>280186600153939970</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>543361804924092427</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>586747865276219402</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>660303901462888448</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>666879942667141128</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>728128358423986186</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>726376311710548049</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>394374989798703104</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>690504046905393182</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>741502587244773448</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>731812522604363777</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>174</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>588988294961037322</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>396163884005851137</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>737473348141056020</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>159985870458322944</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>10</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>348264381488037889</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>36</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>642329685216329738</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>14</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>693818502657867878</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>475511442318032898</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>10</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>619805850701398021</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>657773087571574784</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>16</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>536359014032867351</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>96</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>723813909068251138</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>10</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>595258464729825290</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>642619628375375882</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>711769311387058238</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>8</v>
+      </c>
+      <c r="C146" t="n">
         <v>1</v>
       </c>
     </row>
